--- a/day08/data/다나와_무선청소기_전처리결과.xlsx
+++ b/day08/data/다나와_무선청소기_전처리결과.xlsx
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>446320</v>
+        <v>446390</v>
       </c>
       <c r="E3" t="n">
         <v>60</v>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>149630</v>
+        <v>149780</v>
       </c>
       <c r="E17" t="n">
         <v>12</v>
@@ -1318,7 +1318,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>561930</v>
+        <v>561280</v>
       </c>
       <c r="E35" t="n">
         <v>60</v>
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>49800</v>
+        <v>42330</v>
       </c>
       <c r="E155" t="n">
         <v>20</v>
@@ -9526,7 +9526,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>222270</v>
+        <v>188840</v>
       </c>
       <c r="E370" t="n">
         <v>46</v>
